--- a/UnitTests/Tests/CouponVectors.xlsx
+++ b/UnitTests/Tests/CouponVectors.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Function</t>
   </si>
@@ -85,27 +85,6 @@
   </si>
   <si>
     <t>this function crashed my excel</t>
-  </si>
-  <si>
-    <t>cv01#0000</t>
-  </si>
-  <si>
-    <t>cv02#0000</t>
-  </si>
-  <si>
-    <t>cv03#0000</t>
-  </si>
-  <si>
-    <t>cv04#0000</t>
-  </si>
-  <si>
-    <t>cv05#0000</t>
-  </si>
-  <si>
-    <t>cv08#0000</t>
-  </si>
-  <si>
-    <t>cv09#0000</t>
   </si>
   <si>
     <t>cv10#0000</t>
@@ -521,20 +500,20 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
+      <c r="B3" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D15" si="0">IF(B3=C3,"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="E3" t="str">
+        <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
+        <v>ERROR</v>
+      </c>
+      <c r="E3" t="e">
         <f>_xll.qlFixedRateLeg("cv01","following",J4:J8,G3,K4:K8,"actual/360")</f>
-        <v>cv01#0000</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="str">
         <f>_xll.qlSchedule(,I4,I8,"1Y","target")</f>
-        <v>obj_0000e#0000</v>
+        <v>obj_00027#0000</v>
       </c>
       <c r="I3">
         <f>_xll.qlSettingsEvaluationDate()</f>
@@ -545,16 +524,16 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
+      <c r="B4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E4" t="str">
+        <f t="shared" ref="D4:D15" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
+        <v>ERROR</v>
+      </c>
+      <c r="E4" t="e">
         <f>_xll.qlFixedRateLeg2("cv02","following",J4:J8,G3,L4:L8)</f>
-        <v>cv02#0000</v>
+        <v>#NUM!</v>
       </c>
       <c r="I4">
         <f>I3+1</f>
@@ -568,27 +547,27 @@
       </c>
       <c r="L4" t="str">
         <f>_xll.qlInterestRate(,K4,"actual/360","simple","annual")</f>
-        <v>obj_00006#0000</v>
+        <v>obj_00022#0000</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
+      <c r="B5" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E5" t="str">
+        <v>ERROR</v>
+      </c>
+      <c r="E5" t="e">
         <f>_xll.qlIborLeg("cv03","following",J4,G3,2,FALSE,"actual/360",J4,,G5)</f>
-        <v>cv03#0000</v>
+        <v>#NUM!</v>
       </c>
       <c r="G5" t="str">
         <f>_xll.qlIborIndex(,"euribor","1y",2,"eur","target","mf",TRUE,"actual/360")</f>
-        <v>obj_00007#0000</v>
+        <v>obj_00020#0000</v>
       </c>
       <c r="I5">
         <f>I4+1</f>
@@ -602,23 +581,23 @@
       </c>
       <c r="L5" t="str">
         <f>_xll.qlInterestRate(,K5,"actual/360","simple","annual")</f>
-        <v>obj_00009#0000</v>
+        <v>obj_0001f#0000</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
+      <c r="B6" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E6" t="str">
+        <v>ERROR</v>
+      </c>
+      <c r="E6" t="e">
         <f>_xll.qlDigitalIborLeg("cv04","following",J4,G3,,,"actual/360",,G5,,,"Short - ATM included",,,"Short - ATM included",,G8)</f>
-        <v>cv04#0000</v>
+        <v>#NUM!</v>
       </c>
       <c r="I6">
         <f>I5+1</f>
@@ -632,27 +611,27 @@
       </c>
       <c r="L6" t="str">
         <f>_xll.qlInterestRate(,K6,"actual/360","simple","annual")</f>
-        <v>obj_0000b#0000</v>
+        <v>obj_0001a#0000</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
+      <c r="B7" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E7" t="str">
+        <v>ERROR</v>
+      </c>
+      <c r="E7" t="e">
         <f>_xll.qlCmsLeg("cv05","following",J4,G3,2,FALSE,"actual/360",,,G7)</f>
-        <v>cv05#0000</v>
+        <v>#NUM!</v>
       </c>
       <c r="G7" t="str">
         <f>_xll.qlSwapIndex(,"euribor","1Y",2,"eur","target","1Y","Following","actual/360",G5)</f>
-        <v>obj_0000a#0000</v>
+        <v>obj_00021#0000</v>
       </c>
       <c r="I7">
         <f>I6+1</f>
@@ -666,7 +645,7 @@
       </c>
       <c r="L7" t="str">
         <f>_xll.qlInterestRate(,K7,"actual/360","simple","annual")</f>
-        <v>obj_00008#0000</v>
+        <v>obj_00024#0000</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -676,9 +655,9 @@
       <c r="B8" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D8" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E8" t="e">
         <f>NA()</f>
@@ -689,7 +668,7 @@
       </c>
       <c r="G8" t="str">
         <f>_xll.qlDigitalReplication(,"sub")</f>
-        <v>obj_0000d#0000</v>
+        <v>obj_0001e#0000</v>
       </c>
       <c r="I8">
         <f>I7+1</f>
@@ -703,7 +682,7 @@
       </c>
       <c r="L8" t="str">
         <f>_xll.qlInterestRate(,K8,"actual/360","simple","annual")</f>
-        <v>obj_0000c#0000</v>
+        <v>obj_00019#0000</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -713,9 +692,9 @@
       <c r="B9" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D9" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E9" t="e">
         <f>_xll.qlRangeAccrualLeg("cv07","following",J4,G3,2,"actual/360",1,,G5,,2,"1D","following")</f>
@@ -726,36 +705,36 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>27</v>
+      <c r="B10" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E10" t="str">
+        <v>ERROR</v>
+      </c>
+      <c r="E10" t="e">
         <f>_xll.qlCmsZeroLeg("cv08","following",J4,G3,2,,"actual/360",,,G7)</f>
-        <v>cv08#0000</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
-        <v>28</v>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E11" t="str">
+        <v>ERROR</v>
+      </c>
+      <c r="E11" t="e">
         <f>_xll.qlIborCouponPricer("cv09",G11,"iborbyblack")</f>
-        <v>cv09#0000</v>
+        <v>#NUM!</v>
       </c>
       <c r="G11" t="str">
         <f>_xll.qlConstantOptionletVolatility(,,"target","following",5)</f>
-        <v>obj_00003#0000</v>
+        <v>obj_0001c#0000</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -763,7 +742,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -775,7 +754,7 @@
       </c>
       <c r="G12" t="str">
         <f>_xll.qlConstantSwaptionVolatility(,2,"target","following",5,"actual/360")</f>
-        <v>obj_00001#0000</v>
+        <v>obj_00023#0000</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -783,7 +762,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -815,7 +794,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>

--- a/UnitTests/Tests/CouponVectors.xlsx
+++ b/UnitTests/Tests/CouponVectors.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Function</t>
   </si>
@@ -85,15 +85,6 @@
   </si>
   <si>
     <t>this function crashed my excel</t>
-  </si>
-  <si>
-    <t>cv10#0000</t>
-  </si>
-  <si>
-    <t>cv11#0000</t>
-  </si>
-  <si>
-    <t>cv12#0000</t>
   </si>
 </sst>
 </file>
@@ -452,7 +443,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,20 +491,24 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="e">
-        <v>#NUM!</v>
+      <c r="B3" t="b">
+        <v>0</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
-        <v>ERROR</v>
-      </c>
-      <c r="E3" t="e">
-        <f>_xll.qlFixedRateLeg("cv01","following",J4:J8,G3,K4:K8,"actual/360")</f>
-        <v>#NUM!</v>
+        <v>PASS</v>
+      </c>
+      <c r="E3" t="b">
+        <f>ISERROR(F3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <f>_xll.qlFixedRateLeg(,"following",J4:J8,G3,K4:K8,"actual/360")</f>
+        <v>obj_00012#0002</v>
       </c>
       <c r="G3" t="str">
         <f>_xll.qlSchedule(,I4,I8,"1Y","target")</f>
-        <v>obj_00027#0000</v>
+        <v>obj_0000e#0001</v>
       </c>
       <c r="I3">
         <f>_xll.qlSettingsEvaluationDate()</f>
@@ -524,16 +519,20 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="e">
-        <v>#NUM!</v>
+      <c r="B4" t="b">
+        <v>0</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" ref="D4:D15" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
-        <v>ERROR</v>
-      </c>
-      <c r="E4" t="e">
-        <f>_xll.qlFixedRateLeg2("cv02","following",J4:J8,G3,L4:L8)</f>
-        <v>#NUM!</v>
+        <v>PASS</v>
+      </c>
+      <c r="E4" t="b">
+        <f t="shared" ref="E4:E7" si="1">ISERROR(F4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <f>_xll.qlFixedRateLeg2(,"following",J4:J8,G3,L4:L8)</f>
+        <v>obj_00013#0002</v>
       </c>
       <c r="I4">
         <f>I3+1</f>
@@ -547,27 +546,31 @@
       </c>
       <c r="L4" t="str">
         <f>_xll.qlInterestRate(,K4,"actual/360","simple","annual")</f>
-        <v>obj_00022#0000</v>
+        <v>obj_00007#0001</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="e">
-        <v>#NUM!</v>
+      <c r="B5" t="b">
+        <v>0</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
-      </c>
-      <c r="E5" t="e">
-        <f>_xll.qlIborLeg("cv03","following",J4,G3,2,FALSE,"actual/360",J4,,G5)</f>
-        <v>#NUM!</v>
+        <v>PASS</v>
+      </c>
+      <c r="E5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <f>_xll.qlIborLeg(,"following",J4,G3,2,FALSE,"actual/360",J4,,G5)</f>
+        <v>obj_00011#0002</v>
       </c>
       <c r="G5" t="str">
         <f>_xll.qlIborIndex(,"euribor","1y",2,"eur","target","mf",TRUE,"actual/360")</f>
-        <v>obj_00020#0000</v>
+        <v>obj_00006#0001</v>
       </c>
       <c r="I5">
         <f>I4+1</f>
@@ -581,23 +584,27 @@
       </c>
       <c r="L5" t="str">
         <f>_xll.qlInterestRate(,K5,"actual/360","simple","annual")</f>
-        <v>obj_0001f#0000</v>
+        <v>obj_00000#0001</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="e">
-        <v>#NUM!</v>
+      <c r="B6" t="b">
+        <v>0</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
-      </c>
-      <c r="E6" t="e">
-        <f>_xll.qlDigitalIborLeg("cv04","following",J4,G3,,,"actual/360",,G5,,,"Short - ATM included",,,"Short - ATM included",,G8)</f>
-        <v>#NUM!</v>
+        <v>PASS</v>
+      </c>
+      <c r="E6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <f>_xll.qlDigitalIborLeg(,"following",J4,G3,,,"actual/360",,G5,,,"Short - ATM included",,,"Short - ATM included",,G8)</f>
+        <v>obj_00010#0002</v>
       </c>
       <c r="I6">
         <f>I5+1</f>
@@ -611,27 +618,31 @@
       </c>
       <c r="L6" t="str">
         <f>_xll.qlInterestRate(,K6,"actual/360","simple","annual")</f>
-        <v>obj_0001a#0000</v>
+        <v>obj_00001#0001</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="e">
-        <v>#NUM!</v>
+      <c r="B7" t="b">
+        <v>0</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
-      </c>
-      <c r="E7" t="e">
-        <f>_xll.qlCmsLeg("cv05","following",J4,G3,2,FALSE,"actual/360",,,G7)</f>
-        <v>#NUM!</v>
+        <v>PASS</v>
+      </c>
+      <c r="E7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <f>_xll.qlCmsLeg(,"following",J4,G3,2,FALSE,"actual/360",,,G7)</f>
+        <v>obj_0000f#0002</v>
       </c>
       <c r="G7" t="str">
         <f>_xll.qlSwapIndex(,"euribor","1Y",2,"eur","target","1Y","Following","actual/360",G5)</f>
-        <v>obj_00021#0000</v>
+        <v>obj_00009#0001</v>
       </c>
       <c r="I7">
         <f>I6+1</f>
@@ -645,7 +656,7 @@
       </c>
       <c r="L7" t="str">
         <f>_xll.qlInterestRate(,K7,"actual/360","simple","annual")</f>
-        <v>obj_00024#0000</v>
+        <v>obj_00004#0001</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -668,7 +679,7 @@
       </c>
       <c r="G8" t="str">
         <f>_xll.qlDigitalReplication(,"sub")</f>
-        <v>obj_0001e#0000</v>
+        <v>obj_00008#0001</v>
       </c>
       <c r="I8">
         <f>I7+1</f>
@@ -682,7 +693,7 @@
       </c>
       <c r="L8" t="str">
         <f>_xll.qlInterestRate(,K8,"actual/360","simple","annual")</f>
-        <v>obj_00019#0000</v>
+        <v>obj_00005#0001</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -705,72 +716,88 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="e">
-        <v>#NUM!</v>
+      <c r="B10" t="b">
+        <v>0</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
-      </c>
-      <c r="E10" t="e">
-        <f>_xll.qlCmsZeroLeg("cv08","following",J4,G3,2,,"actual/360",,,G7)</f>
-        <v>#NUM!</v>
+        <v>PASS</v>
+      </c>
+      <c r="E10" t="b">
+        <f t="shared" ref="E10:E13" si="2">ISERROR(F10)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xll.qlCmsZeroLeg(,"following",J4,G3,2,,"actual/360",,,G7)</f>
+        <v>obj_00014#0002</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="e">
-        <v>#NUM!</v>
+      <c r="B11" t="b">
+        <v>0</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
-      </c>
-      <c r="E11" t="e">
-        <f>_xll.qlIborCouponPricer("cv09",G11,"iborbyblack")</f>
-        <v>#NUM!</v>
+        <v>PASS</v>
+      </c>
+      <c r="E11" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xll.qlIborCouponPricer(,G11,"iborbyblack")</f>
+        <v>obj_0000b#0002</v>
       </c>
       <c r="G11" t="str">
         <f>_xll.qlConstantOptionletVolatility(,,"target","following",5)</f>
-        <v>obj_0001c#0000</v>
+        <v>obj_00003#0001</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
+      <c r="B12" t="b">
+        <v>0</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E12" t="str">
-        <f>_xll.qlCmsCouponPricer("cv10",G12,"conundrumbyblack","standard",1)</f>
-        <v>cv10#0000</v>
+        <v>PASS</v>
+      </c>
+      <c r="E12" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xll.qlCmsCouponPricer(,G12,"conundrumbyblack","standard",1)</f>
+        <v>obj_0000d#0002</v>
       </c>
       <c r="G12" t="str">
         <f>_xll.qlConstantSwaptionVolatility(,2,"target","following",5,"actual/360")</f>
-        <v>obj_00023#0000</v>
+        <v>obj_0000a#0001</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
-        <v>23</v>
+      <c r="B13" t="b">
+        <v>0</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E13" t="str">
-        <f>_xll.qlConundrumPricerByNumericalIntegration("cv11",G12,"standard",5)</f>
-        <v>cv11#0000</v>
+        <v>PASS</v>
+      </c>
+      <c r="E13" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <f>_xll.qlConundrumPricerByNumericalIntegration(,G12,"standard",5)</f>
+        <v>obj_0000c#0002</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -785,7 +812,7 @@
         <v>FAIL</v>
       </c>
       <c r="E14">
-        <f>_xll.qlConundrumPricerByNumericalIntegrationUpperLimit(E13)</f>
+        <f>_xll.qlConundrumPricerByNumericalIntegrationUpperLimit(F13)</f>
         <v>1</v>
       </c>
     </row>
@@ -793,16 +820,20 @@
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
+      <c r="B15" t="b">
+        <v>0</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E15" t="str">
-        <f>_xll.qlDigitalReplication("cv12","sub")</f>
-        <v>cv12#0000</v>
+        <v>PASS</v>
+      </c>
+      <c r="E15" t="b">
+        <f>ISERROR(F15)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" t="str">
+        <f>_xll.qlDigitalReplication(,"sub")</f>
+        <v>obj_00002#0002</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTests/Tests/CouponVectors.xlsx
+++ b/UnitTests/Tests/CouponVectors.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\reposit\QuantLibXL\UnitTests\Tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="UNIT_TEST" localSheetId="0">Sheet1!$A$3:$E$15</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -90,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,12 +152,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -194,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,9 +235,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,6 +287,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,7 +479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L15"/>
   <sheetViews>
@@ -446,7 +488,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -499,20 +541,20 @@
         <v>PASS</v>
       </c>
       <c r="E3" t="b">
-        <f>ISERROR(F3)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" t="str">
-        <f>_xll.qlFixedRateLeg(,"following",J4:J8,G3,K4:K8,"actual/360")</f>
-        <v>obj_00012#0002</v>
-      </c>
-      <c r="G3" t="str">
-        <f>_xll.qlSchedule(,I4,I8,"1Y","target")</f>
-        <v>obj_0000e#0001</v>
-      </c>
-      <c r="I3">
-        <f>_xll.qlSettingsEvaluationDate()</f>
-        <v>42644</v>
+        <f ca="1">ISERROR(F3)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" t="e">
+        <f ca="1">_xll.qlFixedRateLeg(,"following",J4:J8,G3,K4:K8,"actual/360")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G3" t="e">
+        <f ca="1">_xll.qlSchedule(,I4,I8,"1Y","target")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I3" t="e">
+        <f ca="1">_xll.qlSettingsEvaluationDate()</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -527,16 +569,16 @@
         <v>PASS</v>
       </c>
       <c r="E4" t="b">
-        <f t="shared" ref="E4:E7" si="1">ISERROR(F4)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" t="str">
-        <f>_xll.qlFixedRateLeg2(,"following",J4:J8,G3,L4:L8)</f>
-        <v>obj_00013#0002</v>
-      </c>
-      <c r="I4">
-        <f>I3+1</f>
-        <v>42645</v>
+        <f t="shared" ref="E4:E7" ca="1" si="1">ISERROR(F4)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" t="e">
+        <f ca="1">_xll.qlFixedRateLeg2(,"following",J4:J8,G3,L4:L8)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I4" t="e">
+        <f ca="1">I3+1</f>
+        <v>#NAME?</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -544,9 +586,9 @@
       <c r="K4">
         <v>6</v>
       </c>
-      <c r="L4" t="str">
-        <f>_xll.qlInterestRate(,K4,"actual/360","simple","annual")</f>
-        <v>obj_00007#0001</v>
+      <c r="L4" t="e">
+        <f ca="1">_xll.qlInterestRate(,K4,"actual/360","simple","annual")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -561,20 +603,20 @@
         <v>PASS</v>
       </c>
       <c r="E5" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F5" t="str">
-        <f>_xll.qlIborLeg(,"following",J4,G3,2,FALSE,"actual/360",J4,,G5)</f>
-        <v>obj_00011#0002</v>
-      </c>
-      <c r="G5" t="str">
-        <f>_xll.qlIborIndex(,"euribor","1y",2,"eur","target","mf",TRUE,"actual/360")</f>
-        <v>obj_00006#0001</v>
-      </c>
-      <c r="I5">
-        <f>I4+1</f>
-        <v>42646</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5" t="e">
+        <f ca="1">_xll.qlIborLeg(,"following",J4,G3,2,FALSE,"actual/360",J4,,G5)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G5" t="e">
+        <f ca="1">_xll.qlIborIndex(,"euribor","1y",2,"eur","target","mf",TRUE,"actual/360")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I5" t="e">
+        <f ca="1">I4+1</f>
+        <v>#NAME?</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -582,9 +624,9 @@
       <c r="K5">
         <v>7</v>
       </c>
-      <c r="L5" t="str">
-        <f>_xll.qlInterestRate(,K5,"actual/360","simple","annual")</f>
-        <v>obj_00000#0001</v>
+      <c r="L5" t="e">
+        <f ca="1">_xll.qlInterestRate(,K5,"actual/360","simple","annual")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -599,16 +641,16 @@
         <v>PASS</v>
       </c>
       <c r="E6" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F6" t="str">
-        <f>_xll.qlDigitalIborLeg(,"following",J4,G3,,,"actual/360",,G5,,,"Short - ATM included",,,"Short - ATM included",,G8)</f>
-        <v>obj_00010#0002</v>
-      </c>
-      <c r="I6">
-        <f>I5+1</f>
-        <v>42647</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F6" t="e">
+        <f ca="1">_xll.qlDigitalIborLeg(,"following",J4,G3,,,"actual/360",,G5,,,"Short - ATM included",,,"Short - ATM included",,G8)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I6" t="e">
+        <f ca="1">I5+1</f>
+        <v>#NAME?</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -616,9 +658,9 @@
       <c r="K6">
         <v>8</v>
       </c>
-      <c r="L6" t="str">
-        <f>_xll.qlInterestRate(,K6,"actual/360","simple","annual")</f>
-        <v>obj_00001#0001</v>
+      <c r="L6" t="e">
+        <f ca="1">_xll.qlInterestRate(,K6,"actual/360","simple","annual")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -633,20 +675,20 @@
         <v>PASS</v>
       </c>
       <c r="E7" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F7" t="str">
-        <f>_xll.qlCmsLeg(,"following",J4,G3,2,FALSE,"actual/360",,,G7)</f>
-        <v>obj_0000f#0002</v>
-      </c>
-      <c r="G7" t="str">
-        <f>_xll.qlSwapIndex(,"euribor","1Y",2,"eur","target","1Y","Following","actual/360",G5)</f>
-        <v>obj_00009#0001</v>
-      </c>
-      <c r="I7">
-        <f>I6+1</f>
-        <v>42648</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F7" t="e">
+        <f ca="1">_xll.qlCmsLeg(,"following",J4,G3,2,FALSE,"actual/360",,,G7)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G7" t="e">
+        <f ca="1">_xll.qlSwapIndex(,"euribor","1Y",2,"eur","target","1Y","Following","actual/360",G5)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I7" t="e">
+        <f ca="1">I6+1</f>
+        <v>#NAME?</v>
       </c>
       <c r="J7">
         <v>4</v>
@@ -654,9 +696,9 @@
       <c r="K7">
         <v>9</v>
       </c>
-      <c r="L7" t="str">
-        <f>_xll.qlInterestRate(,K7,"actual/360","simple","annual")</f>
-        <v>obj_00004#0001</v>
+      <c r="L7" t="e">
+        <f ca="1">_xll.qlInterestRate(,K7,"actual/360","simple","annual")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -677,13 +719,13 @@
       <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" t="str">
-        <f>_xll.qlDigitalReplication(,"sub")</f>
-        <v>obj_00008#0001</v>
-      </c>
-      <c r="I8">
-        <f>I7+1</f>
-        <v>42649</v>
+      <c r="G8" t="e">
+        <f ca="1">_xll.qlDigitalReplication(,"sub")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I8" t="e">
+        <f ca="1">I7+1</f>
+        <v>#NAME?</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -691,9 +733,9 @@
       <c r="K8">
         <v>10</v>
       </c>
-      <c r="L8" t="str">
-        <f>_xll.qlInterestRate(,K8,"actual/360","simple","annual")</f>
-        <v>obj_00005#0001</v>
+      <c r="L8" t="e">
+        <f ca="1">_xll.qlInterestRate(,K8,"actual/360","simple","annual")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -708,8 +750,8 @@
         <v>ERROR</v>
       </c>
       <c r="E9" t="e">
-        <f>_xll.qlRangeAccrualLeg("cv07","following",J4,G3,2,"actual/360",1,,G5,,2,"1D","following")</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlRangeAccrualLeg("cv07","following",J4,G3,2,"actual/360",1,,G5,,2,"1D","following")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -724,12 +766,12 @@
         <v>PASS</v>
       </c>
       <c r="E10" t="b">
-        <f t="shared" ref="E10:E13" si="2">ISERROR(F10)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" t="str">
-        <f>_xll.qlCmsZeroLeg(,"following",J4,G3,2,,"actual/360",,,G7)</f>
-        <v>obj_00014#0002</v>
+        <f t="shared" ref="E10:E13" ca="1" si="2">ISERROR(F10)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" t="e">
+        <f ca="1">_xll.qlCmsZeroLeg(,"following",J4,G3,2,,"actual/360",,,G7)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -744,16 +786,16 @@
         <v>PASS</v>
       </c>
       <c r="E11" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F11" t="str">
-        <f>_xll.qlIborCouponPricer(,G11,"iborbyblack")</f>
-        <v>obj_0000b#0002</v>
-      </c>
-      <c r="G11" t="str">
-        <f>_xll.qlConstantOptionletVolatility(,,"target","following",5)</f>
-        <v>obj_00003#0001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F11" t="e">
+        <f ca="1">_xll.qlIborCouponPricer(,G11,"iborbyblack")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G11" t="e">
+        <f ca="1">_xll.qlConstantOptionletVolatility(,,"target","following",5)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -768,16 +810,16 @@
         <v>PASS</v>
       </c>
       <c r="E12" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F12" t="str">
-        <f>_xll.qlCmsCouponPricer(,G12,"conundrumbyblack","standard",1)</f>
-        <v>obj_0000d#0002</v>
-      </c>
-      <c r="G12" t="str">
-        <f>_xll.qlConstantSwaptionVolatility(,2,"target","following",5,"actual/360")</f>
-        <v>obj_0000a#0001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F12" t="e">
+        <f ca="1">_xll.qlCmsCouponPricer(,G12,"conundrumbyblack","standard",1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G12" t="e">
+        <f ca="1">_xll.qlConstantSwaptionVolatility(,2,"target","following",5,"actual/360")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -792,12 +834,12 @@
         <v>PASS</v>
       </c>
       <c r="E13" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F13" t="str">
-        <f>_xll.qlConundrumPricerByNumericalIntegration(,G12,"standard",5)</f>
-        <v>obj_0000c#0002</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F13" t="e">
+        <f ca="1">_xll.qlConundrumPricerByNumericalIntegration(,G12,"standard",5)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -811,9 +853,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E14">
-        <f>_xll.qlConundrumPricerByNumericalIntegrationUpperLimit(F13)</f>
-        <v>1</v>
+      <c r="E14" t="e">
+        <f ca="1">_xll.qlConundrumPricerByNumericalIntegrationUpperLimit(F13)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -828,12 +870,12 @@
         <v>PASS</v>
       </c>
       <c r="E15" t="b">
-        <f>ISERROR(F15)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" t="str">
-        <f>_xll.qlDigitalReplication(,"sub")</f>
-        <v>obj_00002#0002</v>
+        <f ca="1">ISERROR(F15)</f>
+        <v>1</v>
+      </c>
+      <c r="F15" t="e">
+        <f ca="1">_xll.qlDigitalReplication(,"sub")</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -843,26 +885,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
